--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.885399999999999</v>
+        <v>8.807400000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.201500000000001</v>
+        <v>4.9678</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.136099999999996</v>
+        <v>6.779200000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.791900000000003</v>
+        <v>5.961599999999997</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.020500000000003</v>
+        <v>5.114600000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.588599999999994</v>
+        <v>7.569199999999992</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.568400000000002</v>
+        <v>8.875799999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.017100000000002</v>
+        <v>5.030400000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.885399999999994</v>
+        <v>5.182499999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.718099999999997</v>
+        <v>5.385899999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.401899999999997</v>
+        <v>5.316799999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
